--- a/resources/固定资产导入模板.xlsx
+++ b/resources/固定资产导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuecong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asimo/ejyy/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A61C7A6-708C-C441-8FD9-CD25E528E3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363EB6C1-9E5B-C740-BF4B-CCA091C44D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="6000" windowWidth="37160" windowHeight="17440" xr2:uid="{C1EB87A9-D2C0-D048-A8A9-AEB55918320D}"/>
+    <workbookView xWindow="1240" yWindow="2560" windowWidth="37160" windowHeight="17440" xr2:uid="{C1EB87A9-D2C0-D048-A8A9-AEB55918320D}"/>
   </bookViews>
   <sheets>
     <sheet name="固定资产数据" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>园区编号/建筑商开发期数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,71 @@
   </si>
   <si>
     <t>车库</t>
+  </si>
+  <si>
+    <t>1期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11号楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140825196210152520</t>
+  </si>
+  <si>
+    <t>13096981631</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13053662554</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13053727500</t>
+  </si>
+  <si>
+    <t>13092346141</t>
+  </si>
+  <si>
+    <t>13060304745</t>
+  </si>
+  <si>
+    <t>13020462639</t>
+  </si>
+  <si>
+    <t>刘勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>431022195112168118</t>
+  </si>
+  <si>
+    <t>13010042016</t>
   </si>
 </sst>
 </file>
@@ -369,9 +434,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -409,7 +474,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -515,7 +580,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -657,7 +722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,11 +730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C476A22A-B854-0D4C-9E3B-A7A68F2E97E9}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1"/>
@@ -741,142 +806,206 @@
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F3" s="10">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F4" s="10">
-        <v>18.600000000000001</v>
+        <v>135</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" s="10">
-        <v>198.1</v>
+        <v>22</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F6" s="10">
-        <v>23.1</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" s="10">
-        <v>9.6</v>
+        <v>198.1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1">
-      <c r="B11" s="6" t="s">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10">
+        <v>23.1</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="24" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" customHeight="1">
+      <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
     </row>
